--- a/structure_data_0612/131-mall-cloud-alibaba/131-mall-cloud-alibaba_structure.xlsx
+++ b/structure_data_0612/131-mall-cloud-alibaba/131-mall-cloud-alibaba_structure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
   <si>
     <t>源服务名</t>
   </si>
@@ -34,6 +34,213 @@
   </si>
   <si>
     <t>权重</t>
+  </si>
+  <si>
+    <t>mall-portal-order</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.service.impl.OmsPromotionServiceImpl</t>
+  </si>
+  <si>
+    <t>getPromotionProductList(java.util.List)</t>
+  </si>
+  <si>
+    <t>mall-portal-product</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.controller.PmsPortalProductController</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.service.impl.OmsCartItemServiceImpl</t>
+  </si>
+  <si>
+    <t>getCartProduct(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.service.impl.OmsPortalOrderServiceImpl</t>
+  </si>
+  <si>
+    <t>lockStock(java.util.List)</t>
+  </si>
+  <si>
+    <t>lockStock(java.lang.Long,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>cancelOrder(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>mall-portal-coupon</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.controller.CouponController</t>
+  </si>
+  <si>
+    <t>updateCouponStatus(java.lang.Long,java.lang.Long,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>mall-portal-member</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.controller.UmsMemberController</t>
+  </si>
+  <si>
+    <t>updateIntegration(java.lang.Long,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>generateOrder(com.mtcarpenter.mall.portal.domain.OrderParam)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.controller.UmsMemberReceiveAddressController</t>
+  </si>
+  <si>
+    <t>getItem(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>getUseCoupon(java.util.List,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>listCartPromotion(java.lang.Integer,java.util.List,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>cancelTimeOutOrder()</t>
+  </si>
+  <si>
+    <t>generateConfirmOrder(java.util.List)</t>
+  </si>
+  <si>
+    <t>list(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.controller.MemberProductCollectionController</t>
+  </si>
+  <si>
+    <t>integrationConsumeSetting(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>getUseIntegrationAmount(java.lang.Integer,java.math.BigDecimal,com.mtcarpenter.mall.model.UmsMember,java.lang.Boolean)</t>
+  </si>
+  <si>
+    <t>mall-admin-pms</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.service.impl.PmsProductServiceImpl</t>
+  </si>
+  <si>
+    <t>update(java.lang.Long,com.mtcarpenter.mall.dto.PmsProductParam)</t>
+  </si>
+  <si>
+    <t>mall-admin-cms</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.controller.CmsSubjectController</t>
+  </si>
+  <si>
+    <t>relateAndUpdateList(java.util.List,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.controller.CmsPrefrenceAreaController</t>
+  </si>
+  <si>
+    <t>getUpdateInfo(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>relationByProductId(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>create(com.mtcarpenter.mall.dto.PmsProductParam)</t>
+  </si>
+  <si>
+    <t>relateAndInsertList(java.util.List,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.service.impl.PmsPortalProductServiceImpl</t>
+  </si>
+  <si>
+    <t>detail(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>getAvailableCouponList(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.service.impl.HomeServiceImpl</t>
+  </si>
+  <si>
+    <t>content()</t>
+  </si>
+  <si>
+    <t>getHomeAdvertiseList()</t>
+  </si>
+  <si>
+    <t>getHomeFlashPromotion()</t>
+  </si>
+  <si>
+    <t>getFlashPromotion(java.util.Date)</t>
+  </si>
+  <si>
+    <t>getFlashPromotionSession(java.util.Date)</t>
+  </si>
+  <si>
+    <t>getNextFlashPromotionSession(java.util.Date)</t>
+  </si>
+  <si>
+    <t>listCart(java.lang.Integer,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.controller.OmsCartItemController</t>
+  </si>
+  <si>
+    <t>listPromotion(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.service.impl.CouponServiceImpl</t>
+  </si>
+  <si>
+    <t>listByProduct(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>getPmsProductById(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>mall-admin-sms</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.service.impl.SmsFlashPromotionProductRelationServiceImpl</t>
+  </si>
+  <si>
+    <t>list(java.lang.Long,java.lang.Long,java.lang.Integer,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.controller.PmsProductController</t>
+  </si>
+  <si>
+    <t>getProductByProductId(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.portal.service.impl.UmsMemberCouponServiceImpl</t>
+  </si>
+  <si>
+    <t>listCart(java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>listHistory(java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>listHistory(java.lang.Long,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>list(java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>list(java.lang.Long,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>add(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>add(java.lang.Long,java.lang.Long,java.lang.String)</t>
   </si>
 </sst>
 </file>
@@ -78,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -107,6 +314,765 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -114,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -143,6 +1109,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
